--- a/team_specific_matrix/Alabama St._A.xlsx
+++ b/team_specific_matrix/Alabama St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1875</v>
+        <v>0.1835205992509363</v>
       </c>
       <c r="C2">
-        <v>0.5721153846153846</v>
+        <v>0.5805243445692884</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01442307692307692</v>
+        <v>0.01872659176029963</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1298076923076923</v>
+        <v>0.1310861423220974</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09615384615384616</v>
+        <v>0.08614232209737828</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02439024390243903</v>
+        <v>0.01875</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03252032520325204</v>
+        <v>0.0625</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6910569105691057</v>
+        <v>0.6875</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2520325203252032</v>
+        <v>0.23125</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7647058823529411</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2352941176470588</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0736196319018405</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04294478527607362</v>
+        <v>0.05291005291005291</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2822085889570552</v>
+        <v>0.2804232804232804</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0245398773006135</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1104294478527607</v>
+        <v>0.1058201058201058</v>
       </c>
       <c r="R6">
-        <v>0.07975460122699386</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="S6">
-        <v>0.3865030674846626</v>
+        <v>0.3703703703703703</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07734806629834254</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02209944751381215</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04419889502762431</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1546961325966851</v>
+        <v>0.1651785714285714</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005524861878453038</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1657458563535912</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="R7">
-        <v>0.07734806629834254</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="S7">
-        <v>0.4530386740331492</v>
+        <v>0.4419642857142857</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07575757575757576</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007575757575757576</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04166666666666666</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1098484848484848</v>
+        <v>0.1151515151515152</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01136363636363636</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1401515151515151</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="R8">
-        <v>0.07575757575757576</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S8">
-        <v>0.5378787878787878</v>
+        <v>0.5363636363636364</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06329113924050633</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01265822784810127</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05063291139240506</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1772151898734177</v>
+        <v>0.1743589743589744</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0189873417721519</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1962025316455696</v>
+        <v>0.1897435897435897</v>
       </c>
       <c r="R9">
-        <v>0.0949367088607595</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="S9">
-        <v>0.3860759493670886</v>
+        <v>0.3692307692307693</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09805735430157261</v>
+        <v>0.09781021897810219</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02682701202590194</v>
+        <v>0.02408759124087591</v>
       </c>
       <c r="E10">
-        <v>0.001850138760407031</v>
+        <v>0.00145985401459854</v>
       </c>
       <c r="F10">
-        <v>0.07400555041628122</v>
+        <v>0.06788321167883211</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1406105457909343</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01942645698427382</v>
+        <v>0.01605839416058394</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2016651248843663</v>
+        <v>0.1985401459854015</v>
       </c>
       <c r="R10">
-        <v>0.06197964847363552</v>
+        <v>0.06642335766423357</v>
       </c>
       <c r="S10">
-        <v>0.3755781683626272</v>
+        <v>0.3817518248175182</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1368421052631579</v>
+        <v>0.1400560224089636</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1087719298245614</v>
+        <v>0.1120448179271709</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.2016806722689076</v>
       </c>
       <c r="L11">
-        <v>0.5543859649122806</v>
+        <v>0.5406162464985994</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.005602240896358543</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7961783439490446</v>
+        <v>0.774869109947644</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1719745222929936</v>
+        <v>0.193717277486911</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.006369426751592357</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02547770700636943</v>
+        <v>0.02617801047120419</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03571428571428571</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.006329113924050633</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1265822784810127</v>
+        <v>0.1319796954314721</v>
       </c>
       <c r="I15">
-        <v>0.120253164556962</v>
+        <v>0.116751269035533</v>
       </c>
       <c r="J15">
-        <v>0.3544303797468354</v>
+        <v>0.3604060913705584</v>
       </c>
       <c r="K15">
-        <v>0.06962025316455696</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006329113924050633</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="N15">
-        <v>0.006329113924050633</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="O15">
-        <v>0.0379746835443038</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2721518987341772</v>
+        <v>0.2487309644670051</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02222222222222222</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1333333333333333</v>
+        <v>0.1420454545454546</v>
       </c>
       <c r="I16">
-        <v>0.08148148148148149</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="J16">
-        <v>0.4740740740740741</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="K16">
-        <v>0.1333333333333333</v>
+        <v>0.1193181818181818</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007407407407407408</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02222222222222222</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1259259259259259</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02424242424242424</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.08787878787878788</v>
+        <v>0.09068627450980392</v>
       </c>
       <c r="I17">
-        <v>0.09696969696969697</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="J17">
-        <v>0.4848484848484849</v>
+        <v>0.482843137254902</v>
       </c>
       <c r="K17">
-        <v>0.1454545454545454</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01818181818181818</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="N17">
-        <v>0.006060606060606061</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="O17">
-        <v>0.03939393939393939</v>
+        <v>0.04656862745098039</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09696969696969697</v>
+        <v>0.1029411764705882</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02325581395348837</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1162790697674419</v>
+        <v>0.1197604790419162</v>
       </c>
       <c r="I18">
-        <v>0.1162790697674419</v>
+        <v>0.1017964071856287</v>
       </c>
       <c r="J18">
-        <v>0.4573643410852713</v>
+        <v>0.4730538922155689</v>
       </c>
       <c r="K18">
-        <v>0.1162790697674419</v>
+        <v>0.125748502994012</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007751937984496124</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05426356589147287</v>
+        <v>0.04790419161676647</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1085271317829457</v>
+        <v>0.1017964071856287</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01270772238514174</v>
+        <v>0.01238390092879257</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1788856304985337</v>
+        <v>0.1718266253869969</v>
       </c>
       <c r="I19">
-        <v>0.0801564027370479</v>
+        <v>0.07972136222910217</v>
       </c>
       <c r="J19">
-        <v>0.3978494623655914</v>
+        <v>0.3893188854489164</v>
       </c>
       <c r="K19">
-        <v>0.1300097751710655</v>
+        <v>0.130030959752322</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02052785923753666</v>
+        <v>0.02476780185758514</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07820136852394917</v>
+        <v>0.07662538699690402</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1016617790811339</v>
+        <v>0.1153250773993808</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Alabama St._A.xlsx
+++ b/team_specific_matrix/Alabama St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1835205992509363</v>
+        <v>0.1889250814332248</v>
       </c>
       <c r="C2">
-        <v>0.5805243445692884</v>
+        <v>0.5830618892508144</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01872659176029963</v>
+        <v>0.01628664495114007</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1310861423220974</v>
+        <v>0.1335504885993485</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08614232209737828</v>
+        <v>0.07817589576547231</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01875</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0625</v>
+        <v>0.05945945945945946</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6875</v>
+        <v>0.6864864864864865</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.23125</v>
+        <v>0.2324324324324324</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8095238095238095</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1904761904761905</v>
+        <v>0.1956521739130435</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07936507936507936</v>
+        <v>0.07177033492822966</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05291005291005291</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2804232804232804</v>
+        <v>0.3014354066985646</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02116402116402116</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1058201058201058</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="R6">
-        <v>0.08994708994708994</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="S6">
-        <v>0.3703703703703703</v>
+        <v>0.354066985645933</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07589285714285714</v>
+        <v>0.07782101167315175</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01785714285714286</v>
+        <v>0.01556420233463035</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03571428571428571</v>
+        <v>0.03501945525291829</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1651785714285714</v>
+        <v>0.1673151750972763</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01785714285714286</v>
+        <v>0.01945525291828794</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1607142857142857</v>
+        <v>0.1595330739299611</v>
       </c>
       <c r="R7">
-        <v>0.08482142857142858</v>
+        <v>0.08560311284046693</v>
       </c>
       <c r="S7">
-        <v>0.4419642857142857</v>
+        <v>0.4396887159533074</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08181818181818182</v>
+        <v>0.08465608465608465</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00909090909090909</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03636363636363636</v>
+        <v>0.04497354497354497</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1151515151515152</v>
+        <v>0.1216931216931217</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.00909090909090909</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1454545454545454</v>
+        <v>0.1455026455026455</v>
       </c>
       <c r="R8">
-        <v>0.06666666666666667</v>
+        <v>0.06084656084656084</v>
       </c>
       <c r="S8">
-        <v>0.5363636363636364</v>
+        <v>0.5132275132275133</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08205128205128205</v>
+        <v>0.08133971291866028</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02564102564102564</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04102564102564103</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1743589743589744</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01538461538461539</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1897435897435897</v>
+        <v>0.1913875598086124</v>
       </c>
       <c r="R9">
-        <v>0.1025641025641026</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="S9">
-        <v>0.3692307692307693</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09781021897810219</v>
+        <v>0.1011749347258486</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02408759124087591</v>
+        <v>0.02349869451697128</v>
       </c>
       <c r="E10">
-        <v>0.00145985401459854</v>
+        <v>0.001305483028720627</v>
       </c>
       <c r="F10">
-        <v>0.06788321167883211</v>
+        <v>0.06527415143603134</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.145985401459854</v>
+        <v>0.1494778067885117</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01605839416058394</v>
+        <v>0.01566579634464752</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1985401459854015</v>
+        <v>0.1912532637075718</v>
       </c>
       <c r="R10">
-        <v>0.06642335766423357</v>
+        <v>0.06919060052219321</v>
       </c>
       <c r="S10">
-        <v>0.3817518248175182</v>
+        <v>0.3831592689295039</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1400560224089636</v>
+        <v>0.1453634085213033</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1120448179271709</v>
+        <v>0.100250626566416</v>
       </c>
       <c r="K11">
-        <v>0.2016806722689076</v>
+        <v>0.2005012531328321</v>
       </c>
       <c r="L11">
-        <v>0.5406162464985994</v>
+        <v>0.5488721804511278</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.005602240896358543</v>
+        <v>0.005012531328320802</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.774869109947644</v>
+        <v>0.783410138248848</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.193717277486911</v>
+        <v>0.184331797235023</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.005235602094240838</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02617801047120419</v>
+        <v>0.02764976958525346</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6829268292682927</v>
+        <v>0.68</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2926829268292683</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02439024390243903</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005076142131979695</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1319796954314721</v>
+        <v>0.1266968325791855</v>
       </c>
       <c r="I15">
-        <v>0.116751269035533</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="J15">
-        <v>0.3604060913705584</v>
+        <v>0.3574660633484163</v>
       </c>
       <c r="K15">
-        <v>0.07106598984771574</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01015228426395939</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="N15">
-        <v>0.005076142131979695</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="O15">
-        <v>0.05076142131979695</v>
+        <v>0.04524886877828054</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2487309644670051</v>
+        <v>0.2624434389140272</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01704545454545454</v>
+        <v>0.015</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1420454545454546</v>
+        <v>0.14</v>
       </c>
       <c r="I16">
-        <v>0.07954545454545454</v>
+        <v>0.075</v>
       </c>
       <c r="J16">
-        <v>0.4772727272727273</v>
+        <v>0.48</v>
       </c>
       <c r="K16">
-        <v>0.1193181818181818</v>
+        <v>0.125</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005681818181818182</v>
+        <v>0.015</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02272727272727273</v>
+        <v>0.02</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1363636363636364</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02205882352941177</v>
+        <v>0.02022471910112359</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.09068627450980392</v>
+        <v>0.09438202247191012</v>
       </c>
       <c r="I17">
-        <v>0.09558823529411764</v>
+        <v>0.09662921348314607</v>
       </c>
       <c r="J17">
-        <v>0.482843137254902</v>
+        <v>0.4674157303370787</v>
       </c>
       <c r="K17">
-        <v>0.1372549019607843</v>
+        <v>0.1393258426966292</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01470588235294118</v>
+        <v>0.01797752808988764</v>
       </c>
       <c r="N17">
-        <v>0.007352941176470588</v>
+        <v>0.006741573033707865</v>
       </c>
       <c r="O17">
-        <v>0.04656862745098039</v>
+        <v>0.05168539325842696</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1029411764705882</v>
+        <v>0.1056179775280899</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01796407185628742</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1197604790419162</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I18">
-        <v>0.1017964071856287</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="J18">
-        <v>0.4730538922155689</v>
+        <v>0.4656084656084656</v>
       </c>
       <c r="K18">
-        <v>0.125748502994012</v>
+        <v>0.1216931216931217</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01197604790419162</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04790419161676647</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1017964071856287</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01238390092879257</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1718266253869969</v>
+        <v>0.1745152354570637</v>
       </c>
       <c r="I19">
-        <v>0.07972136222910217</v>
+        <v>0.07548476454293629</v>
       </c>
       <c r="J19">
-        <v>0.3893188854489164</v>
+        <v>0.3878116343490305</v>
       </c>
       <c r="K19">
-        <v>0.130030959752322</v>
+        <v>0.1308864265927978</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02476780185758514</v>
+        <v>0.02562326869806094</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07662538699690402</v>
+        <v>0.07479224376731301</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1153250773993808</v>
+        <v>0.1177285318559557</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Alabama St._A.xlsx
+++ b/team_specific_matrix/Alabama St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1889250814332248</v>
+        <v>0.1858974358974359</v>
       </c>
       <c r="C2">
-        <v>0.5830618892508144</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01628664495114007</v>
+        <v>0.01602564102564102</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1335504885993485</v>
+        <v>0.1314102564102564</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07817589576547231</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02162162162162162</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05945945945945946</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6864864864864865</v>
+        <v>0.6947368421052632</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2324324324324324</v>
+        <v>0.2263157894736842</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7826086956521739</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1956521739130435</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07177033492822966</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05263157894736842</v>
+        <v>0.0502283105022831</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3014354066985646</v>
+        <v>0.3059360730593607</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02392344497607655</v>
+        <v>0.0228310502283105</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1004784688995215</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="R6">
-        <v>0.09569377990430622</v>
+        <v>0.091324200913242</v>
       </c>
       <c r="S6">
-        <v>0.354066985645933</v>
+        <v>0.3607305936073059</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07782101167315175</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01556420233463035</v>
+        <v>0.01532567049808429</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03501945525291829</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1673151750972763</v>
+        <v>0.1685823754789272</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01945525291828794</v>
+        <v>0.01915708812260536</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1595330739299611</v>
+        <v>0.157088122605364</v>
       </c>
       <c r="R7">
-        <v>0.08560311284046693</v>
+        <v>0.08812260536398467</v>
       </c>
       <c r="S7">
-        <v>0.4396887159533074</v>
+        <v>0.4367816091954023</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08465608465608465</v>
+        <v>0.08226221079691516</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01058201058201058</v>
+        <v>0.0102827763496144</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04497354497354497</v>
+        <v>0.04884318766066838</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1216931216931217</v>
+        <v>0.1208226221079692</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01851851851851852</v>
+        <v>0.01799485861182519</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1455026455026455</v>
+        <v>0.1439588688946015</v>
       </c>
       <c r="R8">
-        <v>0.06084656084656084</v>
+        <v>0.06169665809768637</v>
       </c>
       <c r="S8">
-        <v>0.5132275132275133</v>
+        <v>0.5141388174807198</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08133971291866028</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02870813397129187</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03827751196172249</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1818181818181818</v>
+        <v>0.1863636363636364</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01435406698564593</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1913875598086124</v>
+        <v>0.1863636363636364</v>
       </c>
       <c r="R9">
-        <v>0.09569377990430622</v>
+        <v>0.09545454545454546</v>
       </c>
       <c r="S9">
-        <v>0.3684210526315789</v>
+        <v>0.3772727272727273</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1011749347258486</v>
+        <v>0.1000633312222926</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02349869451697128</v>
+        <v>0.02343255224825839</v>
       </c>
       <c r="E10">
-        <v>0.001305483028720627</v>
+        <v>0.001266624445851805</v>
       </c>
       <c r="F10">
-        <v>0.06527415143603134</v>
+        <v>0.06586447118429385</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1494778067885117</v>
+        <v>0.1507283090563648</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01566579634464752</v>
+        <v>0.01519949335022166</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1912532637075718</v>
+        <v>0.1918936035465484</v>
       </c>
       <c r="R10">
-        <v>0.06919060052219321</v>
+        <v>0.06966434452184928</v>
       </c>
       <c r="S10">
-        <v>0.3831592689295039</v>
+        <v>0.3818872704243192</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1453634085213033</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.100250626566416</v>
+        <v>0.1009852216748768</v>
       </c>
       <c r="K11">
-        <v>0.2005012531328321</v>
+        <v>0.1995073891625616</v>
       </c>
       <c r="L11">
-        <v>0.5488721804511278</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.005012531328320802</v>
+        <v>0.004926108374384237</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.783410138248848</v>
+        <v>0.7882882882882883</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.184331797235023</v>
+        <v>0.1801801801801802</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.004608294930875576</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02764976958525346</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009049773755656109</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1266968325791855</v>
+        <v>0.13215859030837</v>
       </c>
       <c r="I15">
-        <v>0.1176470588235294</v>
+        <v>0.1145374449339207</v>
       </c>
       <c r="J15">
-        <v>0.3574660633484163</v>
+        <v>0.3568281938325991</v>
       </c>
       <c r="K15">
-        <v>0.06334841628959276</v>
+        <v>0.07048458149779736</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01357466063348416</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="N15">
-        <v>0.004524886877828055</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="O15">
-        <v>0.04524886877828054</v>
+        <v>0.04405286343612335</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2624434389140272</v>
+        <v>0.2555066079295154</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.015</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.14</v>
+        <v>0.1414634146341463</v>
       </c>
       <c r="I16">
-        <v>0.075</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="J16">
-        <v>0.48</v>
+        <v>0.4682926829268293</v>
       </c>
       <c r="K16">
-        <v>0.125</v>
+        <v>0.1268292682926829</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.015</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.13</v>
+        <v>0.1317073170731707</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02022471910112359</v>
+        <v>0.01969365426695843</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.09438202247191012</v>
+        <v>0.09190371991247265</v>
       </c>
       <c r="I17">
-        <v>0.09662921348314607</v>
+        <v>0.09846827133479212</v>
       </c>
       <c r="J17">
-        <v>0.4674157303370787</v>
+        <v>0.4682713347921225</v>
       </c>
       <c r="K17">
-        <v>0.1393258426966292</v>
+        <v>0.1356673960612692</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01797752808988764</v>
+        <v>0.0175054704595186</v>
       </c>
       <c r="N17">
-        <v>0.006741573033707865</v>
+        <v>0.006564551422319475</v>
       </c>
       <c r="O17">
-        <v>0.05168539325842696</v>
+        <v>0.05032822757111598</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1056179775280899</v>
+        <v>0.1115973741794311</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01587301587301587</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1428571428571428</v>
+        <v>0.1377551020408163</v>
       </c>
       <c r="I18">
-        <v>0.08994708994708994</v>
+        <v>0.09693877551020408</v>
       </c>
       <c r="J18">
-        <v>0.4656084656084656</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="K18">
-        <v>0.1216931216931217</v>
+        <v>0.1173469387755102</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01058201058201058</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04232804232804233</v>
+        <v>0.04591836734693878</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1111111111111111</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0131578947368421</v>
+        <v>0.01477501678979181</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1745152354570637</v>
+        <v>0.1746138347884486</v>
       </c>
       <c r="I19">
-        <v>0.07548476454293629</v>
+        <v>0.07790463398253862</v>
       </c>
       <c r="J19">
-        <v>0.3878116343490305</v>
+        <v>0.3875083948959033</v>
       </c>
       <c r="K19">
-        <v>0.1308864265927978</v>
+        <v>0.1289456010745467</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02562326869806094</v>
+        <v>0.02484889187374077</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07479224376731301</v>
+        <v>0.07387508394895903</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1177285318559557</v>
+        <v>0.1175285426460712</v>
       </c>
     </row>
   </sheetData>
